--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>179.42746627298038</v>
+        <v>179.42746632249674</v>
       </c>
       <c r="C2">
-        <v>180.55170038646224</v>
+        <v>180.55170039538891</v>
       </c>
       <c r="D2">
-        <v>174.06537915853832</v>
+        <v>174.06537920651294</v>
       </c>
       <c r="E2">
-        <v>220.5667527461909</v>
+        <v>220.56675278565086</v>
       </c>
       <c r="F2">
-        <v>200.83989775690242</v>
+        <v>200.83989776446953</v>
       </c>
       <c r="G2">
-        <v>185.84263854618391</v>
+        <v>185.84263860539841</v>
       </c>
       <c r="H2">
-        <v>183.29314862266142</v>
+        <v>183.29314865453171</v>
       </c>
       <c r="I2">
-        <v>184.4161686292953</v>
+        <v>184.41616865394928</v>
       </c>
       <c r="J2">
-        <v>170.38836475530553</v>
+        <v>170.38836481427117</v>
       </c>
       <c r="K2">
-        <v>170.5997825511343</v>
+        <v>170.59978258639788</v>
       </c>
       <c r="L2">
-        <v>191.78261282457208</v>
+        <v>191.78261288455525</v>
       </c>
       <c r="M2">
-        <v>175.58248488482909</v>
+        <v>175.582484925909</v>
       </c>
       <c r="N2">
-        <v>235.16656553751562</v>
+        <v>235.16656560964404</v>
       </c>
       <c r="O2">
-        <v>172.67528429462743</v>
+        <v>172.67528433332257</v>
       </c>
       <c r="P2">
-        <v>206.72913637281044</v>
+        <v>206.72913641561814</v>
       </c>
       <c r="Q2">
-        <v>189.7736790252161</v>
+        <v>189.77367906734946</v>
       </c>
       <c r="R2">
-        <v>223.01334207071591</v>
+        <v>223.01334209369301</v>
       </c>
       <c r="S2">
-        <v>195.21321983051129</v>
+        <v>195.21321988050315</v>
       </c>
       <c r="T2">
-        <v>200.71848082836604</v>
+        <v>200.71848087074034</v>
       </c>
       <c r="U2">
-        <v>164.7099667634125</v>
+        <v>164.70996678908404</v>
       </c>
       <c r="V2">
-        <v>199.49988448566128</v>
+        <v>199.49988453248631</v>
       </c>
       <c r="W2">
-        <v>226.14792102754245</v>
+        <v>226.14792107694893</v>
       </c>
       <c r="X2">
-        <v>158.78785960035779</v>
+        <v>158.78785962365711</v>
       </c>
       <c r="Y2">
-        <v>178.57057428144384</v>
+        <v>178.57057431558147</v>
       </c>
       <c r="Z2">
-        <v>162.50472130361004</v>
+        <v>162.50472132366937</v>
       </c>
       <c r="AA2">
-        <v>175.54494561498541</v>
+        <v>175.54494572805041</v>
       </c>
       <c r="AB2">
-        <v>173.31395602837725</v>
+        <v>173.31395605961467</v>
       </c>
       <c r="AC2">
-        <v>155.7855806902646</v>
+        <v>155.7855807094983</v>
       </c>
       <c r="AD2">
-        <v>194.80267446376754</v>
+        <v>194.80267450306582</v>
       </c>
       <c r="AE2">
-        <v>176.79436829521029</v>
+        <v>176.79436832151291</v>
       </c>
       <c r="AF2">
-        <v>175.91782995214177</v>
+        <v>175.91782998587954</v>
       </c>
       <c r="AG2">
-        <v>190.96176094321919</v>
+        <v>190.96176097394556</v>
       </c>
       <c r="AH2">
-        <v>180.82304406560397</v>
+        <v>180.82304410126349</v>
       </c>
       <c r="AI2">
-        <v>191.0753403946546</v>
+        <v>191.07534043730482</v>
       </c>
       <c r="AJ2">
-        <v>181.95425864582626</v>
+        <v>181.95425869083729</v>
       </c>
       <c r="AK2">
-        <v>190.00827419429666</v>
+        <v>190.00827425587514</v>
       </c>
       <c r="AL2">
-        <v>173.76298826841159</v>
+        <v>173.76298831998702</v>
       </c>
       <c r="AM2">
-        <v>235.7352085427647</v>
+        <v>235.73520860205826</v>
       </c>
       <c r="AN2">
-        <v>174.58653057660254</v>
+        <v>174.58653062100834</v>
       </c>
       <c r="AO2">
-        <v>196.12363842913737</v>
+        <v>196.1236384801075</v>
       </c>
       <c r="AP2">
-        <v>193.74946557241054</v>
+        <v>193.74946560840041</v>
       </c>
       <c r="AQ2">
-        <v>223.1338262132825</v>
+        <v>223.133826288135</v>
       </c>
       <c r="AR2">
-        <v>190.42063852104681</v>
+        <v>190.42063853399802</v>
       </c>
       <c r="AS2">
-        <v>207.94783529885433</v>
+        <v>207.94783535967994</v>
       </c>
       <c r="AT2">
-        <v>166.52748205984989</v>
+        <v>166.52748209533095</v>
       </c>
       <c r="AU2">
-        <v>202.45006396519977</v>
+        <v>202.45006399199312</v>
       </c>
       <c r="AV2">
-        <v>223.73196245173506</v>
+        <v>223.73196252840521</v>
       </c>
       <c r="AW2">
-        <v>155.65404638517938</v>
+        <v>155.65404644105354</v>
       </c>
       <c r="AX2">
-        <v>188.9438991563029</v>
+        <v>188.94389922308474</v>
       </c>
       <c r="AY2">
-        <v>172.71668161343536</v>
+        <v>172.71668165595622</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>175.20409533822311</v>
+        <v>175.20409537689096</v>
       </c>
       <c r="C3">
-        <v>172.34361006455057</v>
+        <v>172.3436100836727</v>
       </c>
       <c r="D3">
-        <v>142.35781221983873</v>
+        <v>142.35781224747652</v>
       </c>
       <c r="E3">
-        <v>213.0293537180857</v>
+        <v>213.02935373734127</v>
       </c>
       <c r="F3">
-        <v>187.04928351320942</v>
+        <v>187.04928354113267</v>
       </c>
       <c r="G3">
-        <v>178.92246352432105</v>
+        <v>178.92246353984382</v>
       </c>
       <c r="H3">
-        <v>184.21545308572402</v>
+        <v>184.21545313717291</v>
       </c>
       <c r="I3">
-        <v>176.05158544353932</v>
+        <v>176.05158547149645</v>
       </c>
       <c r="J3">
-        <v>171.82202367616696</v>
+        <v>171.82202370765873</v>
       </c>
       <c r="K3">
-        <v>182.37096155067118</v>
+        <v>182.37096158404788</v>
       </c>
       <c r="L3">
-        <v>180.46844433584695</v>
+        <v>180.468444370513</v>
       </c>
       <c r="M3">
-        <v>182.45195394935095</v>
+        <v>182.4520530975303</v>
       </c>
       <c r="N3">
-        <v>215.66093198136073</v>
+        <v>215.66093203200802</v>
       </c>
       <c r="O3">
-        <v>171.65790078877811</v>
+        <v>171.65790081672372</v>
       </c>
       <c r="P3">
-        <v>180.8725602776309</v>
+        <v>180.87256031659882</v>
       </c>
       <c r="Q3">
-        <v>187.20777344763329</v>
+        <v>187.20777348222259</v>
       </c>
       <c r="R3">
-        <v>227.08603719369884</v>
+        <v>227.08603722823111</v>
       </c>
       <c r="S3">
-        <v>187.20189719457463</v>
+        <v>187.20189721667816</v>
       </c>
       <c r="T3">
-        <v>224.4191541417182</v>
+        <v>224.41915417439776</v>
       </c>
       <c r="U3">
-        <v>166.35027674130498</v>
+        <v>166.35027675798923</v>
       </c>
       <c r="V3">
-        <v>210.53241444849337</v>
+        <v>210.53241446785302</v>
       </c>
       <c r="W3">
-        <v>192.1626788137452</v>
+        <v>192.16267889046213</v>
       </c>
       <c r="X3">
-        <v>163.41984393503523</v>
+        <v>163.41984398537031</v>
       </c>
       <c r="Y3">
-        <v>175.02146071577616</v>
+        <v>175.0214607445472</v>
       </c>
       <c r="Z3">
-        <v>166.48124028934842</v>
+        <v>166.48124031330278</v>
       </c>
       <c r="AA3">
-        <v>166.27547435878918</v>
+        <v>166.27547440689941</v>
       </c>
       <c r="AB3">
-        <v>178.67431862626904</v>
+        <v>178.67431867384155</v>
       </c>
       <c r="AC3">
-        <v>143.26188526960851</v>
+        <v>143.26188532615259</v>
       </c>
       <c r="AD3">
-        <v>219.30714740141275</v>
+        <v>219.30714746894671</v>
       </c>
       <c r="AE3">
-        <v>181.21608935998674</v>
+        <v>181.21608935843003</v>
       </c>
       <c r="AF3">
-        <v>177.26306731824801</v>
+        <v>177.26306736978086</v>
       </c>
       <c r="AG3">
-        <v>183.33673720470225</v>
+        <v>183.33673726548864</v>
       </c>
       <c r="AH3">
-        <v>184.47004750917839</v>
+        <v>184.47004753805552</v>
       </c>
       <c r="AI3">
-        <v>168.80556217147071</v>
+        <v>168.80556222659584</v>
       </c>
       <c r="AJ3">
-        <v>181.47433690297541</v>
+        <v>181.47433696507821</v>
       </c>
       <c r="AK3">
-        <v>189.61643717067076</v>
+        <v>189.61643719155811</v>
       </c>
       <c r="AL3">
-        <v>174.3551970164539</v>
+        <v>174.35519706095425</v>
       </c>
       <c r="AM3">
-        <v>211.91721303073584</v>
+        <v>211.91721311210463</v>
       </c>
       <c r="AN3">
-        <v>180.64958322091269</v>
+        <v>180.64958327106208</v>
       </c>
       <c r="AO3">
-        <v>229.50925907143846</v>
+        <v>229.50925915232139</v>
       </c>
       <c r="AP3">
-        <v>187.78284509697153</v>
+        <v>187.78284515165964</v>
       </c>
       <c r="AQ3">
-        <v>217.9710723785555</v>
+        <v>217.97107242324191</v>
       </c>
       <c r="AR3">
-        <v>181.19651614914042</v>
+        <v>181.1965161842644</v>
       </c>
       <c r="AS3">
-        <v>224.52128584534341</v>
+        <v>224.5212858855167</v>
       </c>
       <c r="AT3">
-        <v>166.03610232720777</v>
+        <v>166.03610238790606</v>
       </c>
       <c r="AU3">
-        <v>219.20082407469991</v>
+        <v>219.20082414202275</v>
       </c>
       <c r="AV3">
-        <v>195.2906905375612</v>
+        <v>195.29069058076928</v>
       </c>
       <c r="AW3">
-        <v>161.24060703209614</v>
+        <v>161.24060710543006</v>
       </c>
       <c r="AX3">
-        <v>153.98207570981219</v>
+        <v>153.98207575793927</v>
       </c>
       <c r="AY3">
-        <v>170.33265148027758</v>
+        <v>170.33265151072607</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>179.42746632249674</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>180.55170039538891</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>174.06537920651294</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>220.56675278565086</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>200.83989776446953</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>185.84263860539841</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>183.29314865453171</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>184.41616865394928</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>170.38836481427117</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>170.59978258639788</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>191.78261288455525</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>175.582484925909</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>235.16656560964404</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>172.67528433332257</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>206.72913641561814</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>189.77367906734946</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>223.01334209369301</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>195.21321988050315</v>
@@ -588,55 +477,55 @@
         <v>162.50472132366937</v>
       </c>
       <c r="AA2">
-        <v>175.54494572805041</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>173.31395605961467</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>155.7855807094983</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>194.80267450306582</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>176.79436832151291</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>175.91782998587954</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>190.96176097394556</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>180.82304410126349</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>191.07534043730482</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>181.95425869083729</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>190.00827425587514</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>173.76298831998702</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>235.73520860205826</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>174.58653062100834</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>196.1236384801075</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>193.74946560840041</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>223.133826288135</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>190.42063853399802</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>175.20409537689096</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>172.3436100836727</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>142.35781224747652</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>213.02935373734127</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>187.04928354113267</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>178.92246353984382</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>184.21545313717291</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>176.05158547149645</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>171.82202370765873</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>182.37096158404788</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>180.468444370513</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>182.4520530975303</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>215.66093203200802</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>171.65790081672372</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>180.87256031659882</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>187.20777348222259</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>227.08603722823111</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>187.20189721667816</v>
@@ -743,55 +629,55 @@
         <v>166.48124031330278</v>
       </c>
       <c r="AA3">
-        <v>166.27547440689941</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>178.67431867384155</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>143.26188532615259</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>219.30714746894671</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>181.21608935843003</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>177.26306736978086</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>183.33673726548864</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>184.47004753805552</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>168.80556222659584</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>181.47433696507821</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>189.61643719155811</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>174.35519706095425</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>211.91721311210463</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>180.64958327106208</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>229.50925915232139</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>187.78284515165964</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>217.97107242324191</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>181.1965161842644</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>179.42746627298038</v>
+        <v>172.67528433332257</v>
       </c>
       <c r="C2">
-        <v>180.55170038646224</v>
+        <v>223.01334209369301</v>
       </c>
       <c r="D2">
-        <v>174.06537915853832</v>
+        <v>174.58653062100834</v>
       </c>
       <c r="E2">
-        <v>220.5667527461909</v>
+        <v>223.133826288135</v>
       </c>
       <c r="F2">
         <v>200.83989775690242</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>175.20409533822311</v>
+        <v>171.65790081672372</v>
       </c>
       <c r="C3">
-        <v>172.34361006455057</v>
+        <v>227.08603722823111</v>
       </c>
       <c r="D3">
-        <v>142.35781221983873</v>
+        <v>180.64958327106208</v>
       </c>
       <c r="E3">
-        <v>213.0293537180857</v>
+        <v>217.89594454113043</v>
       </c>
       <c r="F3">
         <v>187.04928351320942</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>179.42746627298038</v>
+        <v>235.16656560964404</v>
       </c>
       <c r="C2">
-        <v>180.55170038646224</v>
+        <v>172.67528433332257</v>
       </c>
       <c r="D2">
-        <v>174.06537915853832</v>
+        <v>235.73520860205826</v>
       </c>
       <c r="E2">
-        <v>220.5667527461909</v>
+        <v>174.58653062100834</v>
       </c>
       <c r="F2">
         <v>200.83989775690242</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>175.20409533822311</v>
+        <v>215.66093203200802</v>
       </c>
       <c r="C3">
-        <v>172.34361006455057</v>
+        <v>171.65790081672372</v>
       </c>
       <c r="D3">
-        <v>142.35781221983873</v>
+        <v>211.91721311210463</v>
       </c>
       <c r="E3">
-        <v>213.0293537180857</v>
+        <v>180.64958327106208</v>
       </c>
       <c r="F3">
         <v>187.04928351320942</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>179.42746632249674</v>
+      </c>
+      <c r="C2">
+        <v>180.55170039538891</v>
+      </c>
+      <c r="D2">
+        <v>174.06537920651294</v>
+      </c>
+      <c r="E2">
+        <v>220.56675278565086</v>
+      </c>
+      <c r="F2">
+        <v>200.83989776446953</v>
+      </c>
+      <c r="G2">
+        <v>185.84263860539841</v>
+      </c>
+      <c r="H2">
+        <v>183.29314865453171</v>
+      </c>
+      <c r="I2">
+        <v>184.41616865394928</v>
+      </c>
+      <c r="J2">
+        <v>170.38836481427117</v>
+      </c>
+      <c r="K2">
+        <v>170.59978258639788</v>
+      </c>
+      <c r="L2">
+        <v>191.78261288455525</v>
+      </c>
+      <c r="M2">
+        <v>175.582484925909</v>
+      </c>
+      <c r="N2">
         <v>235.16656560964404</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>172.67528433332257</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>206.72913641561814</v>
+      </c>
+      <c r="Q2">
+        <v>189.77367906734946</v>
+      </c>
+      <c r="R2">
+        <v>223.01334209369301</v>
+      </c>
+      <c r="S2">
+        <v>195.21321988050315</v>
+      </c>
+      <c r="T2">
+        <v>200.71848087074034</v>
+      </c>
+      <c r="U2">
+        <v>164.70996678908404</v>
+      </c>
+      <c r="V2">
+        <v>199.49988453248631</v>
+      </c>
+      <c r="W2">
+        <v>226.14792107694893</v>
+      </c>
+      <c r="X2">
+        <v>158.78785962365711</v>
+      </c>
+      <c r="Y2">
+        <v>178.57057431558147</v>
+      </c>
+      <c r="Z2">
+        <v>162.50472132366937</v>
+      </c>
+      <c r="AA2">
+        <v>175.54494572805041</v>
+      </c>
+      <c r="AB2">
+        <v>173.31395605961467</v>
+      </c>
+      <c r="AC2">
+        <v>155.7855807094983</v>
+      </c>
+      <c r="AD2">
+        <v>194.80267450306582</v>
+      </c>
+      <c r="AE2">
+        <v>176.79436832151291</v>
+      </c>
+      <c r="AF2">
+        <v>175.91782998587954</v>
+      </c>
+      <c r="AG2">
+        <v>190.96176097394556</v>
+      </c>
+      <c r="AH2">
+        <v>180.82304410126349</v>
+      </c>
+      <c r="AI2">
+        <v>191.07534043730482</v>
+      </c>
+      <c r="AJ2">
+        <v>181.95425869083729</v>
+      </c>
+      <c r="AK2">
+        <v>190.00827425587514</v>
+      </c>
+      <c r="AL2">
+        <v>173.76298831998702</v>
+      </c>
+      <c r="AM2">
         <v>235.73520860205826</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>174.58653062100834</v>
       </c>
-      <c r="F2">
-        <v>200.83989775690242</v>
-      </c>
-      <c r="G2">
-        <v>185.84263854618391</v>
-      </c>
-      <c r="H2">
-        <v>183.29314862266142</v>
-      </c>
-      <c r="I2">
-        <v>184.4161686292953</v>
-      </c>
-      <c r="J2">
-        <v>170.38836475530553</v>
-      </c>
-      <c r="K2">
-        <v>170.5997825511343</v>
-      </c>
-      <c r="L2">
-        <v>191.78261282457208</v>
-      </c>
-      <c r="M2">
-        <v>175.58248488482909</v>
-      </c>
-      <c r="N2">
-        <v>235.16656553751562</v>
-      </c>
-      <c r="O2">
-        <v>172.67528429462743</v>
-      </c>
-      <c r="P2">
-        <v>206.72913637281044</v>
-      </c>
-      <c r="Q2">
-        <v>189.7736790252161</v>
-      </c>
-      <c r="R2">
-        <v>223.01334207071591</v>
-      </c>
-      <c r="S2">
-        <v>195.21321983051129</v>
-      </c>
-      <c r="T2">
-        <v>200.71848082836604</v>
-      </c>
-      <c r="U2">
-        <v>164.7099667634125</v>
-      </c>
-      <c r="V2">
-        <v>199.49988448566128</v>
-      </c>
-      <c r="W2">
-        <v>226.14792102754245</v>
-      </c>
-      <c r="X2">
-        <v>158.78785960035779</v>
-      </c>
-      <c r="Y2">
-        <v>178.57057428144384</v>
-      </c>
-      <c r="Z2">
-        <v>162.50472130361004</v>
-      </c>
-      <c r="AA2">
-        <v>175.54494561498541</v>
-      </c>
-      <c r="AB2">
-        <v>173.31395602837725</v>
-      </c>
-      <c r="AC2">
-        <v>155.7855806902646</v>
-      </c>
-      <c r="AD2">
-        <v>194.80267446376754</v>
-      </c>
-      <c r="AE2">
-        <v>176.79436829521029</v>
-      </c>
-      <c r="AF2">
-        <v>175.91782995214177</v>
-      </c>
-      <c r="AG2">
-        <v>190.96176094321919</v>
-      </c>
-      <c r="AH2">
-        <v>180.82304406560397</v>
-      </c>
-      <c r="AI2">
-        <v>191.0753403946546</v>
-      </c>
-      <c r="AJ2">
-        <v>181.95425864582626</v>
-      </c>
-      <c r="AK2">
-        <v>190.00827419429666</v>
-      </c>
-      <c r="AL2">
-        <v>173.76298826841159</v>
-      </c>
-      <c r="AM2">
-        <v>235.7352085427647</v>
-      </c>
-      <c r="AN2">
-        <v>174.58653057660254</v>
-      </c>
       <c r="AO2">
-        <v>196.12363842913737</v>
+        <v>196.1236384801075</v>
       </c>
       <c r="AP2">
-        <v>193.09846592842686</v>
+        <v>193.09846595716519</v>
       </c>
       <c r="AQ2">
-        <v>223.1338262132825</v>
+        <v>223.133826288135</v>
       </c>
       <c r="AR2">
-        <v>190.42063852104681</v>
+        <v>190.42063853399802</v>
       </c>
       <c r="AS2">
-        <v>207.94783529885433</v>
+        <v>207.94783535967994</v>
       </c>
       <c r="AT2">
-        <v>166.52748205984989</v>
+        <v>166.52748209533095</v>
       </c>
       <c r="AU2">
-        <v>202.45006396519977</v>
+        <v>202.45006399199312</v>
       </c>
       <c r="AV2">
-        <v>223.73196245173506</v>
+        <v>223.73196252840521</v>
       </c>
       <c r="AW2">
-        <v>155.65404638517938</v>
+        <v>155.65404644105354</v>
       </c>
       <c r="AX2">
-        <v>188.9438991563029</v>
+        <v>188.94389922308474</v>
       </c>
       <c r="AY2">
-        <v>172.71668161343536</v>
+        <v>172.71668165595622</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>175.20409537689096</v>
+      </c>
+      <c r="C3">
+        <v>172.3436100836727</v>
+      </c>
+      <c r="D3">
+        <v>142.35781224747652</v>
+      </c>
+      <c r="E3">
+        <v>213.02935373734127</v>
+      </c>
+      <c r="F3">
+        <v>187.04928354113267</v>
+      </c>
+      <c r="G3">
+        <v>178.92246353984382</v>
+      </c>
+      <c r="H3">
+        <v>184.21545313717291</v>
+      </c>
+      <c r="I3">
+        <v>176.05158547149645</v>
+      </c>
+      <c r="J3">
+        <v>171.82202370765873</v>
+      </c>
+      <c r="K3">
+        <v>182.37096158404788</v>
+      </c>
+      <c r="L3">
+        <v>180.468444370513</v>
+      </c>
+      <c r="M3">
+        <v>182.4520530975303</v>
+      </c>
+      <c r="N3">
         <v>215.66093203200802</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>171.65790081672372</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>180.87256031659882</v>
+      </c>
+      <c r="Q3">
+        <v>187.20777348222259</v>
+      </c>
+      <c r="R3">
+        <v>227.08603722823111</v>
+      </c>
+      <c r="S3">
+        <v>187.20189721667816</v>
+      </c>
+      <c r="T3">
+        <v>224.41915417439776</v>
+      </c>
+      <c r="U3">
+        <v>166.35027675798923</v>
+      </c>
+      <c r="V3">
+        <v>210.53241446785302</v>
+      </c>
+      <c r="W3">
+        <v>192.53357302379283</v>
+      </c>
+      <c r="X3">
+        <v>163.41984398537031</v>
+      </c>
+      <c r="Y3">
+        <v>175.0214607445472</v>
+      </c>
+      <c r="Z3">
+        <v>166.48124031330278</v>
+      </c>
+      <c r="AA3">
+        <v>166.27547440689941</v>
+      </c>
+      <c r="AB3">
+        <v>178.67431867384155</v>
+      </c>
+      <c r="AC3">
+        <v>143.26188532615259</v>
+      </c>
+      <c r="AD3">
+        <v>219.30714746894671</v>
+      </c>
+      <c r="AE3">
+        <v>181.21608935843003</v>
+      </c>
+      <c r="AF3">
+        <v>177.26306736978086</v>
+      </c>
+      <c r="AG3">
+        <v>183.33673726548864</v>
+      </c>
+      <c r="AH3">
+        <v>185.15142829749902</v>
+      </c>
+      <c r="AI3">
+        <v>168.80556222659584</v>
+      </c>
+      <c r="AJ3">
+        <v>181.47433696507821</v>
+      </c>
+      <c r="AK3">
+        <v>189.61643719155811</v>
+      </c>
+      <c r="AL3">
+        <v>174.35519706095425</v>
+      </c>
+      <c r="AM3">
         <v>211.91721311210463</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>180.64958327106208</v>
       </c>
-      <c r="F3">
-        <v>187.04928351320942</v>
-      </c>
-      <c r="G3">
-        <v>178.92246352432105</v>
-      </c>
-      <c r="H3">
-        <v>184.21545308572402</v>
-      </c>
-      <c r="I3">
-        <v>176.05158544353932</v>
-      </c>
-      <c r="J3">
-        <v>171.82202367616696</v>
-      </c>
-      <c r="K3">
-        <v>182.37096155067118</v>
-      </c>
-      <c r="L3">
-        <v>180.46844433584695</v>
-      </c>
-      <c r="M3">
-        <v>182.45195394935095</v>
-      </c>
-      <c r="N3">
-        <v>215.66093198136073</v>
-      </c>
-      <c r="O3">
-        <v>171.65790078877811</v>
-      </c>
-      <c r="P3">
-        <v>180.8725602776309</v>
-      </c>
-      <c r="Q3">
-        <v>187.20777344763329</v>
-      </c>
-      <c r="R3">
-        <v>227.08603719369884</v>
-      </c>
-      <c r="S3">
-        <v>187.20189719457463</v>
-      </c>
-      <c r="T3">
-        <v>224.4191541417182</v>
-      </c>
-      <c r="U3">
-        <v>166.35027674130498</v>
-      </c>
-      <c r="V3">
-        <v>210.53241444849337</v>
-      </c>
-      <c r="W3">
-        <v>192.53357293203092</v>
-      </c>
-      <c r="X3">
-        <v>163.41984393503523</v>
-      </c>
-      <c r="Y3">
-        <v>175.02146071577616</v>
-      </c>
-      <c r="Z3">
-        <v>166.48124028934842</v>
-      </c>
-      <c r="AA3">
-        <v>166.27547435878918</v>
-      </c>
-      <c r="AB3">
-        <v>178.67431862626904</v>
-      </c>
-      <c r="AC3">
-        <v>143.26188526960851</v>
-      </c>
-      <c r="AD3">
-        <v>219.30714740141275</v>
-      </c>
-      <c r="AE3">
-        <v>181.21608935998674</v>
-      </c>
-      <c r="AF3">
-        <v>177.26306731824801</v>
-      </c>
-      <c r="AG3">
-        <v>183.33673720470225</v>
-      </c>
-      <c r="AH3">
-        <v>185.15142827125533</v>
-      </c>
-      <c r="AI3">
-        <v>168.80556217147071</v>
-      </c>
-      <c r="AJ3">
-        <v>181.47433690297541</v>
-      </c>
-      <c r="AK3">
-        <v>189.61643717067076</v>
-      </c>
-      <c r="AL3">
-        <v>174.3551970164539</v>
-      </c>
-      <c r="AM3">
-        <v>211.91721303073584</v>
-      </c>
-      <c r="AN3">
-        <v>180.64958322091269</v>
-      </c>
       <c r="AO3">
-        <v>229.50925907143846</v>
+        <v>229.50925915232139</v>
       </c>
       <c r="AP3">
-        <v>187.78284509697153</v>
+        <v>187.78284515165964</v>
       </c>
       <c r="AQ3">
-        <v>217.8959445001579</v>
+        <v>217.89594454113043</v>
       </c>
       <c r="AR3">
-        <v>181.19651614914042</v>
+        <v>181.1965161842644</v>
       </c>
       <c r="AS3">
-        <v>224.52128584534341</v>
+        <v>224.5212858855167</v>
       </c>
       <c r="AT3">
-        <v>166.03610232720777</v>
+        <v>166.03610238790606</v>
       </c>
       <c r="AU3">
-        <v>219.20082407469991</v>
+        <v>219.20082414202275</v>
       </c>
       <c r="AV3">
-        <v>195.2906905375612</v>
+        <v>195.29069058076928</v>
       </c>
       <c r="AW3">
-        <v>161.24060703209614</v>
+        <v>161.24060710543006</v>
       </c>
       <c r="AX3">
-        <v>153.98207570981219</v>
+        <v>153.98207575793927</v>
       </c>
       <c r="AY3">
-        <v>170.33265148027758</v>
+        <v>170.33265151072607</v>
       </c>
     </row>
   </sheetData>
